--- a/Metabolic_Gene_List_v2.xlsx
+++ b/Metabolic_Gene_List_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/simon_kelterborn_charite_de/Documents/! Files 1/Manuscripts/fib Yousef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_CD6FFDCE8F79A8D366075C52F39B9234BC78B380" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A06CD8A7-BF3E-B94B-9835-6EBD89B4C4DA}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_CD6FFDCE8F79A8D366075C52F39B9234BC78B380" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA33D5FB-787C-2E46-ACF6-B7BB72928A32}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>gene_id</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>PSBS2</t>
+  </si>
+  <si>
+    <t>Cre06.g292250</t>
+  </si>
+  <si>
+    <t>PFOR</t>
+  </si>
+  <si>
+    <t>pyruvate synthase</t>
   </si>
 </sst>
 </file>
@@ -764,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,6 +787,7 @@
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1331,6 +1341,23 @@
         <v>111</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Metabolic_Gene_List_v2.xlsx
+++ b/Metabolic_Gene_List_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede-my.sharepoint.com/personal/simon_kelterborn_charite_de/Documents/! Files 1/Manuscripts/fib Yousef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_CD6FFDCE8F79A8D366075C52F39B9234BC78B380" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA33D5FB-787C-2E46-ACF6-B7BB72928A32}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="11_CD6FFDCE8F79A8D366075C52F39B9234BC78B380" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39E4151F-21E3-3C4F-84AE-474143F29014}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>gene_id</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>pyruvate synthase</t>
+  </si>
+  <si>
+    <t>Pyruvate ferredoxin oxidoreductase</t>
   </si>
 </sst>
 </file>
@@ -775,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1359,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
